--- a/LO6/VT/data.xlsx
+++ b/LO6/VT/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/VT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAB739-D58D-0F48-8CCF-920B1CE03406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085DB407-DDBF-1043-A9D8-FEA4441CDB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{CC34003B-FD5F-554C-B063-D23EC5D2326E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -710,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>0.5</v>
       </c>
@@ -721,8 +721,12 @@
         <f>D19/C19</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f>0.05/C19</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>0.2</v>
       </c>
@@ -733,8 +737,12 @@
         <f>D20/C20</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>0.05/C20</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>0.1</v>
       </c>
@@ -744,6 +752,10 @@
       <c r="E21">
         <f>D21/C21</f>
         <v>4</v>
+      </c>
+      <c r="F21">
+        <f>0.05/C21</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
